--- a/classification/droptc/sentence/modern-bert/freeze/24677315/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/freeze/24677315/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5226806998252869</v>
+        <v>0.3288459777832031</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7469130158424377</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4094894826412201</v>
+        <v>0.9106826782226562</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2987772822380066</v>
+        <v>0.7231399416923523</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7636173367500305</v>
+        <v>0.9704291820526123</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3009220063686371</v>
+        <v>0.7324007749557495</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7164880633354187</v>
+        <v>0.6559435725212097</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6092188358306885</v>
+        <v>0.8652181029319763</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4023215174674988</v>
+        <v>0.6559435725212097</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6707371473312378</v>
+        <v>0.7551073431968689</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8561927676200867</v>
+        <v>0.7726218700408936</v>
       </c>
     </row>
     <row r="13">
@@ -791,14 +791,14 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.34737429022789</v>
+        <v>0.8562283515930176</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5311061143875122</v>
+        <v>0.8072007894515991</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3275235891342163</v>
+        <v>0.9415031671524048</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8099676966667175</v>
+        <v>0.883962869644165</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3034332692623138</v>
+        <v>0.7673877477645874</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8761512041091919</v>
+        <v>0.6585550308227539</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.399825245141983</v>
+        <v>0.9831655025482178</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8851821422576904</v>
+        <v>0.8425921201705933</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5848934650421143</v>
+        <v>0.9964924454689026</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8502931594848633</v>
+        <v>0.7693949937820435</v>
       </c>
     </row>
     <row r="23">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3627944588661194</v>
+        <v>0.9880638718605042</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7339879870414734</v>
+        <v>0.9249513149261475</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4160400927066803</v>
+        <v>0.3470872640609741</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8717291951179504</v>
+        <v>0.4051797091960907</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6662055850028992</v>
+        <v>0.9664952158927917</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.3449975848197937</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.7052859663963318</v>
+        <v>0.6799802184104919</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.753409743309021</v>
+        <v>0.9408191442489624</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6447774767875671</v>
+        <v>0.7612112164497375</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.8543247580528259</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6357482671737671</v>
+        <v>0.7544976472854614</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.697422981262207</v>
+        <v>0.9543737173080444</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6580061316490173</v>
+        <v>0.9732884764671326</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6010708212852478</v>
+        <v>0.9499176740646362</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5100278854370117</v>
+        <v>0.9723959565162659</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5687642097473145</v>
+        <v>0.9528223276138306</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.9717294573783875</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6043798923492432</v>
+        <v>0.2801749706268311</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8511751890182495</v>
+        <v>0.9939129948616028</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9299643635749817</v>
+        <v>0.5170103907585144</v>
       </c>
     </row>
     <row r="43">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1635,10 +1635,10 @@
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.7651489973068237</v>
+        <v>0.5814749598503113</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.9197352528572083</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6500888466835022</v>
+        <v>0.9125166535377502</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.821194052696228</v>
+        <v>0.912071704864502</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5895711779594421</v>
+        <v>0.6047148704528809</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3459276854991913</v>
+        <v>0.873444676399231</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.5858234167098999</v>
+        <v>0.9988294243812561</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5936341285705566</v>
+        <v>0.9129698276519775</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8765780329704285</v>
+        <v>0.686270534992218</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7418681383132935</v>
+        <v>0.934581995010376</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5975216627120972</v>
+        <v>0.9129698276519775</v>
       </c>
     </row>
     <row r="54">
@@ -1939,14 +1939,14 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3627944588661194</v>
+        <v>0.6775762438774109</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8005219697952271</v>
+        <v>0.996446430683136</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5390327572822571</v>
+        <v>0.9979149699211121</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4849376678466797</v>
+        <v>0.9984442591667175</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5363412499427795</v>
+        <v>0.8490034341812134</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.7608630657196045</v>
+        <v>0.9858043193817139</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.6876679658889771</v>
+        <v>0.872553288936615</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4160400927066803</v>
+        <v>0.9537800550460815</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5025398135185242</v>
+        <v>0.7633947730064392</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3135622143745422</v>
+        <v>0.9023468494415283</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6175400018692017</v>
+        <v>0.7607547044754028</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.7511218190193176</v>
+        <v>0.9349275827407837</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.5474958419799805</v>
+        <v>0.9349275827407837</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7298763394355774</v>
+        <v>0.7972233295440674</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3268936574459076</v>
+        <v>0.9349275827407837</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6325531005859375</v>
+        <v>0.6856462955474854</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.7880250811576843</v>
+        <v>0.9196285605430603</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8584582209587097</v>
+        <v>0.6416035890579224</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6812291741371155</v>
+        <v>0.9864215850830078</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.6899202466011047</v>
+        <v>0.8797369003295898</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2503,10 +2503,10 @@
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4159923493862152</v>
+        <v>0.6525763273239136</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2813073396682739</v>
+        <v>0.4935177862644196</v>
       </c>
     </row>
     <row r="76">
@@ -2555,14 +2555,14 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.5580316185951233</v>
+        <v>0.8797369003295898</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.6623841524124146</v>
+        <v>0.5165139436721802</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8714907169342041</v>
+        <v>0.8797369003295898</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.4043575525283813</v>
+        <v>0.993548572063446</v>
       </c>
     </row>
     <row r="80">
@@ -2667,14 +2667,14 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.358541339635849</v>
+        <v>0.462713748216629</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4938644766807556</v>
+        <v>0.3190365135669708</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7378778457641602</v>
+        <v>0.5926398038864136</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.8453654646873474</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6451200246810913</v>
+        <v>0.8453654646873474</v>
       </c>
     </row>
     <row r="85">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2811,10 +2811,10 @@
         </is>
       </c>
       <c r="E85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4584842622280121</v>
+        <v>0.9813375473022461</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.7328373193740845</v>
+        <v>0.9002481698989868</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2867,10 +2867,10 @@
         </is>
       </c>
       <c r="E87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.6713054180145264</v>
+        <v>0.9091941714286804</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6094360947608948</v>
+        <v>0.8530581593513489</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8477630615234375</v>
+        <v>0.7043178677558899</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3680062294006348</v>
+        <v>0.9783365726470947</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.5940993428230286</v>
+        <v>0.9773771166801453</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.7278643846511841</v>
+        <v>0.9738606810569763</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.6154738068580627</v>
+        <v>0.9818187355995178</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.4160400927066803</v>
+        <v>0.9824609160423279</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7344645857810974</v>
+        <v>0.9760382771492004</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.7923485636711121</v>
+        <v>0.9803683161735535</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.5842570662498474</v>
+        <v>0.3831260502338409</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3698525428771973</v>
+        <v>0.9834414720535278</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6094360947608948</v>
+        <v>0.8788292407989502</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6708649396896362</v>
+        <v>0.7290756702423096</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.4160971343517303</v>
+        <v>0.963982105255127</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3009220063686371</v>
+        <v>0.5696725249290466</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6873863935470581</v>
+        <v>0.6105750203132629</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.4849376678466797</v>
+        <v>0.8111781477928162</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.9522124528884888</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6450128555297852</v>
+        <v>0.9399597644805908</v>
       </c>
     </row>
     <row r="107">
@@ -3423,14 +3423,14 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5565237402915955</v>
+        <v>0.5308696031570435</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5367990732192993</v>
+        <v>0.6178312301635742</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.4905892312526703</v>
+        <v>0.9476810097694397</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8404152393341064</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.5958693027496338</v>
+        <v>0.7920710444450378</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6734330058097839</v>
+        <v>0.7296225428581238</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.6122508645057678</v>
+        <v>0.8960040211677551</v>
       </c>
     </row>
     <row r="114">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3623,10 +3623,10 @@
         </is>
       </c>
       <c r="E114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.7829041481018066</v>
+        <v>0.9751096367835999</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7439001798629761</v>
+        <v>0.7676175236701965</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2987772822380066</v>
+        <v>0.4044858515262604</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7131285667419434</v>
+        <v>0.8378096222877502</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.3268936574459076</v>
+        <v>0.5005553364753723</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3449975848197937</v>
+        <v>0.6366150379180908</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5453647375106812</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8358697891235352</v>
+        <v>0.8098370432853699</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.57801353931427</v>
+        <v>0.9616820216178894</v>
       </c>
     </row>
     <row r="123">
@@ -3871,14 +3871,14 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.4005593955516815</v>
+        <v>0.8098370432853699</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7586436867713928</v>
+        <v>0.9616820216178894</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5939368009567261</v>
+        <v>0.8098370432853699</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.6049213409423828</v>
+        <v>0.995880126953125</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.6186984181404114</v>
+        <v>0.291888415813446</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4300060570240021</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.7054338455200195</v>
+        <v>0.6216025352478027</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.8380720019340515</v>
+        <v>0.414585679769516</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4099,10 +4099,10 @@
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2691741287708282</v>
+        <v>0.9889175891876221</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7593645453453064</v>
+        <v>0.5464252233505249</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3009220063686371</v>
+        <v>0.9492358565330505</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.291939377784729</v>
+        <v>0.5828459858894348</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4418074190616608</v>
+        <v>0.9866581559181213</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4135976433753967</v>
+        <v>0.8514643311500549</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.7535432577133179</v>
+        <v>0.9785782098770142</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.4530279636383057</v>
+        <v>0.7901704907417297</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.5796514749526978</v>
+        <v>0.9818135499954224</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4351,10 +4351,10 @@
         </is>
       </c>
       <c r="E140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.5352392792701721</v>
+        <v>0.9925940632820129</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9163326025009155</v>
+        <v>0.8304378986358643</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6040311455726624</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6819519996643066</v>
+        <v>0.4391781389713287</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.7268711924552917</v>
+        <v>0.9657617211341858</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.7870660424232483</v>
+        <v>0.4391781389713287</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6338630318641663</v>
+        <v>0.9457587003707886</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.715569794178009</v>
+        <v>0.6856462955474854</v>
       </c>
     </row>
     <row r="148">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.6829143166542053</v>
+        <v>0.8895027637481689</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4396651387214661</v>
+        <v>0.851424515247345</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.748908519744873</v>
+        <v>0.3206057548522949</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.6553186774253845</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="152">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -4687,10 +4687,10 @@
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.745421290397644</v>
+        <v>0.3434652090072632</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.8459927439689636</v>
+        <v>0.9816995859146118</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.6422687768936157</v>
+        <v>0.7796233296394348</v>
       </c>
     </row>
     <row r="155">
@@ -4762,7 +4762,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4771,10 +4771,10 @@
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5346022844314575</v>
+        <v>0.9940448403358459</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.688625156879425</v>
+        <v>0.5772178173065186</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.4386308491230011</v>
+        <v>0.9935587048530579</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.7288139462471008</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4883,10 +4883,10 @@
         </is>
       </c>
       <c r="E159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5657308101654053</v>
+        <v>0.9974868297576904</v>
       </c>
     </row>
     <row r="160">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -4911,10 +4911,10 @@
         </is>
       </c>
       <c r="E160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.868751585483551</v>
+        <v>0.6126681566238403</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6175400018692017</v>
+        <v>0.9886425137519836</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.6867557764053345</v>
+        <v>0.9667746424674988</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2682680189609528</v>
+        <v>0.80418860912323</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.4881499111652374</v>
+        <v>0.5172469019889832</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.5707424283027649</v>
+        <v>0.9893411993980408</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8827362060546875</v>
+        <v>0.8888101577758789</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.8827362060546875</v>
+        <v>0.7061737179756165</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.5848934650421143</v>
+        <v>0.582173228263855</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.7265236377716064</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.675711452960968</v>
+        <v>0.7061737179756165</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>SoftwareFault</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Normal</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.6757112741470337</v>
+        <v>0.7471089959144592</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.2272672802209854</v>
+        <v>0.9995822310447693</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.4076515436172485</v>
+        <v>0.8819887042045593</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.5836393237113953</v>
+        <v>0.9108812808990479</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.7477567195892334</v>
+        <v>0.8819887042045593</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3121485114097595</v>
+        <v>0.8175742030143738</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.751142680644989</v>
+        <v>0.9108812808990479</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.833410382270813</v>
+        <v>0.8560168147087097</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.8249943852424622</v>
+        <v>0.973681628704071</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.950437068939209</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6224322915077209</v>
+        <v>0.5914095044136047</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.9618266820907593</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.6103758215904236</v>
+        <v>0.437580943107605</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9367331862449646</v>
+        <v>0.9991191029548645</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.4499187767505646</v>
+        <v>0.953680694103241</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.8554379940032959</v>
+        <v>0.9568189978599548</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6346314549446106</v>
+        <v>0.9724188446998596</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.8104746341705322</v>
+        <v>0.9671635627746582</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3933166563510895</v>
+        <v>0.9656575322151184</v>
       </c>
     </row>
     <row r="190">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5751,10 +5751,10 @@
         </is>
       </c>
       <c r="E190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5730165243148804</v>
+        <v>0.9702200293540955</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8126593828201294</v>
+        <v>0.4215905368328094</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.4951069056987762</v>
+        <v>0.9476978182792664</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3446239829063416</v>
+        <v>0.9527487754821777</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.519490122795105</v>
+        <v>0.8669754266738892</v>
       </c>
     </row>
     <row r="195">
@@ -5882,7 +5882,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5891,10 +5891,10 @@
         </is>
       </c>
       <c r="E195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.773942232131958</v>
+        <v>0.5475041270256042</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.6043798923492432</v>
+        <v>0.998955249786377</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.5573813319206238</v>
+        <v>0.7715227007865906</v>
       </c>
     </row>
     <row r="198">
@@ -5971,14 +5971,14 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.8012545704841614</v>
+        <v>0.4396502077579498</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6003,10 +6003,10 @@
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3236158490180969</v>
+        <v>0.9002323150634766</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8019561171531677</v>
+        <v>0.8734054565429688</v>
       </c>
     </row>
     <row r="201">
@@ -6050,7 +6050,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -6059,10 +6059,10 @@
         </is>
       </c>
       <c r="E201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.4855455756187439</v>
+        <v>0.9975027441978455</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9381382465362549</v>
+        <v>0.9723002314567566</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.6224032044410706</v>
+        <v>0.7999805212020874</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.7833614945411682</v>
+        <v>0.3724834024906158</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.7521739602088928</v>
+        <v>0.6037778258323669</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9138363003730774</v>
+        <v>0.9947032332420349</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4940387606620789</v>
+        <v>0.5183470249176025</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.5126150846481323</v>
+        <v>0.9499142169952393</v>
       </c>
     </row>
     <row r="209">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -6283,10 +6283,10 @@
         </is>
       </c>
       <c r="E209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.7596995830535889</v>
+        <v>0.4426415860652924</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.3449971377849579</v>
+        <v>0.9993126392364502</v>
       </c>
     </row>
   </sheetData>
